--- a/2. IMPLEMENTARE/06. CERERI_DE_RAMBURSARE/2017_04_05_GRAFIC.xlsx
+++ b/2. IMPLEMENTARE/06. CERERI_DE_RAMBURSARE/2017_04_05_GRAFIC.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\_CLOUDIFIER_POC1\03. Cloudifier\2. IMPLEMENTARE\06. CERERI_DE_RAMBURSARE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Nr. cererii</t>
   </si>
@@ -126,21 +121,9 @@
     <t>Rambursare intermediara 4 pentru CAG/regie aferenta prefinantarii 2 si rambursare factura 1 aferenta activitatii 3.1</t>
   </si>
   <si>
-    <t>Rambursare intermediara 5 aferenta cererii de plata 1 inclusiv cheltuielile de regie aferente</t>
-  </si>
-  <si>
     <t>26.04.2017</t>
   </si>
   <si>
-    <t>Rambursare intermediara 6 aferenta cererii de prefinantare 3</t>
-  </si>
-  <si>
-    <t>Rambursare intermediara 7 aferenta cheltuielilor de regie din prefinantarea 3</t>
-  </si>
-  <si>
-    <t>Rambursare intermediara 8 (aferenta cererii de plata 2, regie, alte cheltuieli)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rambursare intermediara 9 aferenta cererii de prefinantare 4 </t>
   </si>
   <si>
@@ -172,13 +155,96 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Ramb</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rabursare intermediara 6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aferenta regiei cheltuielilor de echipamente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rambursare intermediara 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> aferenta cererii de prefinantare 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Rambursare intermediara 8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aferenta cheltuielilor de regie din prefinantarea 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rambursare intermediara 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (aferenta cererii de plata 2)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Rambursare intermediara 5 aferenta cererii de plata 1 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,8 +289,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +310,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -346,11 +425,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -368,27 +462,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -434,6 +507,51 @@
     </xf>
     <xf numFmtId="4" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,7 +859,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -749,404 +867,612 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.86328125" customWidth="1"/>
-    <col min="3" max="3" width="40.796875" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.06640625" style="3"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:5" ht="40.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
+    <row r="1" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="11"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="11"/>
+    <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="26">
-        <v>1</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="22">
         <v>52696.800000000003</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="30.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="26">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G27" si="0">E4*F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="30.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="19">
         <v>2</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="22">
         <v>55617.42</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="26">
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="19">
         <v>3</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="13">
         <v>52590.6</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="26">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>52590.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="19">
         <v>4</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="22">
         <v>59590</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="26">
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="19">
         <v>5</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="13">
         <v>13147.65</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="30.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="26">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>13147.65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="30.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="24">
         <v>6</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="27">
         <v>49879.8</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="60.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="26">
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>49879.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="60.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="24">
         <v>7</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="27">
         <v>18895.95</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="26">
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>18895.95</v>
+      </c>
+      <c r="K10" s="23">
+        <v>46737.32</v>
+      </c>
+      <c r="L10" s="23">
+        <v>8880.09</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="24">
         <v>8</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="30">
         <v>49861.18</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="45.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="26">
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="30.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="24">
         <v>9</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="21">
-        <v>69521.78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="26">
+      <c r="E12" s="27">
+        <v>55617.41</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>55617.41</v>
+      </c>
+      <c r="K12">
+        <f>K10+L10</f>
+        <v>55617.41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="19">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="21">
-        <v>49861.18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="26">
+      <c r="C13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="14">
+        <v>13904.35</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>13904.35</v>
+      </c>
+      <c r="K13">
+        <f>K12*0.25</f>
+        <v>13904.352500000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="19">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="21">
-        <f>E13*0.25</f>
+      <c r="E14" s="14">
+        <v>49861.18</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>49861.18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="19">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="14">
+        <f>E14*0.25</f>
         <v>12465.295</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="26">
-        <v>12</v>
-      </c>
-      <c r="C15" s="22" t="s">
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>12465.295</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="19">
+        <v>13</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E16" s="17">
         <v>58941</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="26">
-        <v>13</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="19">
+        <v>14</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E17" s="18">
         <v>180000</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="26">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="19">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E18" s="12">
         <v>200000</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="26">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="19">
-        <f>E15</f>
-        <v>58941</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="26">
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="19">
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="19">
-        <f>E18*0.25</f>
+      <c r="E19" s="12">
+        <f>E16</f>
+        <v>58941</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>58941</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="19">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="12">
+        <f>E19*0.25</f>
         <v>14735.25</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="26">
-        <v>17</v>
-      </c>
-      <c r="C20" s="22" t="s">
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>14735.25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="19">
+        <v>18</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E21" s="17">
         <v>58941</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="26">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="19">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="12">
+        <f>E21</f>
+        <v>58941</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>58941</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="19">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="12">
+        <f>E22*0.25</f>
+        <v>14735.25</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>14735.25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="19">
+        <v>21</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="17">
+        <v>53719</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="19">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="12">
+        <f>E24</f>
+        <v>53719</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>53719</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="19">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="12">
+        <f>E25*0.25</f>
+        <v>13429.75</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>13429.75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="19">
+        <v>24</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="19">
-        <f>E20</f>
-        <v>58941</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="26">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="19">
-        <f>E21*0.25</f>
-        <v>14735.25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="26">
-        <v>20</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="24">
-        <v>53719</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="26">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D27" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="19">
-        <f>E23</f>
-        <v>53719</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="31.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="26">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="E27" s="17">
+        <v>21477</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="19">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="19">
-        <f>E24*0.25</f>
-        <v>13429.75</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="26">
-        <v>23</v>
-      </c>
-      <c r="C26" s="22" t="s">
+      <c r="E28" s="12">
+        <f>E29-H28</f>
+        <v>117817.51500000001</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f>E28*F28</f>
+        <v>117817.51500000001</v>
+      </c>
+      <c r="H28" s="11">
+        <f>SUM(G4:G27)</f>
+        <v>680863.48499999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="24">
-        <v>21477</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="26">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="19">
-        <f>E28-H27</f>
-        <v>117817.495</v>
-      </c>
-      <c r="H27" s="18">
-        <f>SUM(E25+E24+E22+E21+E19+E18+E17+E14+E13+E12+E10+E9+E8+E6)</f>
-        <v>680863.505</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="6">
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="6">
+        <v>798681</v>
+      </c>
+      <c r="G29">
+        <f>SUM(G4:G28)</f>
         <v>798681</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -1164,7 +1490,7 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2. IMPLEMENTARE/06. CERERI_DE_RAMBURSARE/2017_04_05_GRAFIC.xlsx
+++ b/2. IMPLEMENTARE/06. CERERI_DE_RAMBURSARE/2017_04_05_GRAFIC.xlsx
@@ -859,7 +859,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,7 +880,7 @@
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="35"/>
       <c r="C3" s="37"/>
       <c r="D3" s="35"/>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="30.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19">
         <v>2</v>
       </c>
@@ -941,7 +941,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="22">
-        <v>55617.42</v>
+        <v>55617.41</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>52590.6</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="19">
         <v>4</v>
       </c>
@@ -983,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="22">
-        <v>59590</v>
+        <v>59372.82</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>13147.65</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="30.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24">
         <v>6</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>8880.09</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="24">
         <v>8</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="30">
-        <v>49861.18</v>
+        <v>50397.279999999999</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
